--- a/data/flux/2019-suspended.xlsx
+++ b/data/flux/2019-suspended.xlsx
@@ -326,10 +326,10 @@
   <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J36" activeCellId="0" sqref="J36"/>
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -364,1491 +364,1491 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>2019</v>
-      </c>
-      <c r="D2" s="0" t="n">
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>2019</v>
+      </c>
+      <c r="D2" s="3" t="n">
         <v>20</v>
       </c>
       <c r="E2" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="3" t="n">
         <v>0.8955330247</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" s="3" t="n">
         <v>3.086018996</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2" s="3" t="n">
         <v>-26.86</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2" s="3" t="n">
         <v>4.13</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2" s="3" t="n">
         <v>2.95</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="3" t="n">
         <v>50</v>
       </c>
       <c r="E3" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="3" t="n">
         <v>0.6174051409</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3" s="3" t="n">
         <v>4.197128861</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3" s="3" t="n">
         <v>-26.05</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3" s="3" t="n">
         <v>7.92</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3" s="3" t="n">
         <v>5.83</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="3" t="n">
         <v>60</v>
       </c>
       <c r="E4" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="3" t="n">
         <v>0.6920404356</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4" s="3" t="n">
         <v>4.78821746</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4" s="3" t="n">
         <v>-26.23</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4" s="3" t="n">
         <v>7.27</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4" s="3" t="n">
         <v>5.93</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="3" t="n">
         <v>70</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>70</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="3" t="n">
         <v>0.8838732268</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5" s="3" t="n">
         <v>3.192358363</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5" s="3" t="n">
         <v>-29.49</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5" s="3" t="n">
         <v>5.6</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5" s="3" t="n">
         <v>3.1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="3" t="n">
         <v>70</v>
       </c>
       <c r="E6" s="4" t="n">
         <v>70</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="3" t="n">
         <v>0.4954754659</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6" s="3" t="n">
         <v>3.393215189</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6" s="3" t="n">
         <v>-27.4</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I6" s="3" t="n">
         <v>6.71</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="J6" s="3" t="n">
         <v>5.87</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="3" t="n">
         <v>75</v>
       </c>
       <c r="E7" s="4" t="n">
         <v>75</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="3" t="n">
         <v>0.577134884</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7" s="3" t="n">
         <v>3.723762298</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7" s="3" t="n">
         <v>-26.43</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I7" s="3" t="n">
         <v>6.85</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J7" s="3" t="n">
         <v>5.53</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="3" t="n">
         <v>80</v>
       </c>
       <c r="E8" s="4" t="n">
         <v>80</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="3" t="n">
         <v>0.3125040211</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8" s="3" t="n">
         <v>2.348905325</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8" s="3" t="n">
         <v>-31.25</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="I8" s="3" t="n">
         <v>7.78</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="3" t="n">
         <v>90</v>
       </c>
       <c r="E9" s="4" t="n">
         <v>90</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9" s="3" t="n">
         <v>0.4490920622</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9" s="3" t="n">
         <v>2.18419653</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9" s="3" t="n">
         <v>-31.17</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="I9" s="3" t="n">
         <v>6.41</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="J9" s="3" t="n">
         <v>4.17</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="3" t="n">
         <v>100</v>
       </c>
       <c r="E10" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10" s="3" t="n">
         <v>0.670552258</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10" s="3" t="n">
         <v>2.031490676</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H10" s="3" t="n">
         <v>-31.47</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="I10" s="3" t="n">
         <v>4.96</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="J10" s="3" t="n">
         <v>2.6</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="3" t="n">
         <v>110</v>
       </c>
       <c r="E11" s="4" t="n">
         <v>110</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="3" t="n">
         <v>0.5127535422</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11" s="3" t="n">
         <v>2.002234522</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="H11" s="3" t="n">
         <v>-31.18</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="I11" s="3" t="n">
         <v>6.49</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="J11" s="3" t="n">
         <v>3.35</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="3" t="n">
         <v>120</v>
       </c>
       <c r="E12" s="4" t="n">
         <v>120</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12" s="3" t="n">
         <v>0.2289122862</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="G12" s="3" t="n">
         <v>1.852220498</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="H12" s="3" t="n">
         <v>-27.81</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="I12" s="3" t="n">
         <v>10.54</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="J12" s="3" t="n">
         <v>6.94</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="3" t="n">
         <v>120</v>
       </c>
       <c r="E13" s="4" t="n">
         <v>120</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13" s="3" t="n">
         <v>0.7971689681</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="G13" s="3" t="n">
         <v>2.181313995</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="H13" s="3" t="n">
         <v>-30.21</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="I13" s="3" t="n">
         <v>4.79</v>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="J13" s="3" t="n">
         <v>2.35</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14" s="3" t="n">
         <v>130</v>
       </c>
       <c r="E14" s="4" t="n">
         <v>130</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14" s="3" t="n">
         <v>0.199772745</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="G14" s="3" t="n">
         <v>1.969665757</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="H14" s="3" t="n">
         <v>-28.49</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="I14" s="3" t="n">
         <v>8.59</v>
       </c>
-      <c r="J14" s="0" t="n">
+      <c r="J14" s="3" t="n">
         <v>8.45</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="3" t="n">
         <v>130</v>
       </c>
       <c r="E15" s="4" t="n">
         <v>130</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15" s="3" t="n">
         <v>0.2673436747</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="G15" s="3" t="n">
         <v>1.990382196</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="H15" s="3" t="n">
         <v>-27.95</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="I15" s="3" t="n">
         <v>9.24</v>
       </c>
-      <c r="J15" s="0" t="n">
+      <c r="J15" s="3" t="n">
         <v>6.38</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16" s="3" t="n">
         <v>140</v>
       </c>
       <c r="E16" s="4" t="n">
         <v>140</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16" s="3" t="n">
         <v>0.3907979004</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="G16" s="3" t="n">
         <v>2.479346305</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="H16" s="3" t="n">
         <v>-28.25</v>
       </c>
-      <c r="I16" s="0" t="n">
+      <c r="I16" s="3" t="n">
         <v>6.88</v>
       </c>
-      <c r="J16" s="0" t="n">
+      <c r="J16" s="3" t="n">
         <v>5.44</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17" s="3" t="n">
         <v>150</v>
       </c>
       <c r="E17" s="4" t="n">
         <v>150</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17" s="3" t="n">
         <v>0.3144970812</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="G17" s="3" t="n">
         <v>1.931390105</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="H17" s="3" t="n">
         <v>-27.72</v>
       </c>
-      <c r="I17" s="0" t="n">
+      <c r="I17" s="3" t="n">
         <v>7.4</v>
       </c>
-      <c r="J17" s="0" t="n">
+      <c r="J17" s="3" t="n">
         <v>5.26</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18" s="3" t="n">
         <v>160</v>
       </c>
       <c r="E18" s="4" t="n">
         <v>160</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="F18" s="3" t="n">
         <v>0.291074797</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="G18" s="3" t="n">
         <v>2.033492667</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="H18" s="3" t="n">
         <v>-28.16</v>
       </c>
-      <c r="I18" s="0" t="n">
+      <c r="I18" s="3" t="n">
         <v>7.93</v>
       </c>
-      <c r="J18" s="0" t="n">
+      <c r="J18" s="3" t="n">
         <v>5.99</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19" s="3" t="n">
         <v>170</v>
       </c>
       <c r="E19" s="4" t="n">
         <v>170</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19" s="3" t="n">
         <v>0.3765874866</v>
       </c>
-      <c r="G19" s="0" t="n">
+      <c r="G19" s="3" t="n">
         <v>2.238609727</v>
       </c>
-      <c r="H19" s="0" t="n">
+      <c r="H19" s="3" t="n">
         <v>-28.52</v>
       </c>
-      <c r="I19" s="0" t="n">
+      <c r="I19" s="3" t="n">
         <v>6.59</v>
       </c>
-      <c r="J19" s="0" t="n">
+      <c r="J19" s="3" t="n">
         <v>5.1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20" s="3" t="n">
         <v>180</v>
       </c>
       <c r="E20" s="4" t="n">
         <v>180</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F20" s="3" t="n">
         <v>0.2276479964</v>
       </c>
-      <c r="G20" s="0" t="n">
+      <c r="G20" s="3" t="n">
         <v>1.977671656</v>
       </c>
-      <c r="H20" s="0" t="n">
+      <c r="H20" s="3" t="n">
         <v>-28.15</v>
       </c>
-      <c r="I20" s="0" t="n">
+      <c r="I20" s="3" t="n">
         <v>8.78</v>
       </c>
-      <c r="J20" s="0" t="n">
+      <c r="J20" s="3" t="n">
         <v>7.45</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21" s="3" t="n">
         <v>190</v>
       </c>
       <c r="E21" s="4" t="n">
         <v>190</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="F21" s="3" t="n">
         <v>0.1845868936</v>
       </c>
-      <c r="G21" s="0" t="n">
+      <c r="G21" s="3" t="n">
         <v>1.917583167</v>
       </c>
-      <c r="H21" s="0" t="n">
+      <c r="H21" s="3" t="n">
         <v>-28.31</v>
       </c>
-      <c r="I21" s="0" t="n">
+      <c r="I21" s="3" t="n">
         <v>8.95</v>
       </c>
-      <c r="J21" s="0" t="n">
+      <c r="J21" s="3" t="n">
         <v>8.9</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22" s="3" t="n">
         <v>200</v>
       </c>
       <c r="E22" s="4" t="n">
         <v>200</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="F22" s="3" t="n">
         <v>0.3030329288</v>
       </c>
-      <c r="G22" s="0" t="n">
+      <c r="G22" s="3" t="n">
         <v>1.832049655</v>
       </c>
-      <c r="H22" s="0" t="n">
+      <c r="H22" s="3" t="n">
         <v>-28.32</v>
       </c>
-      <c r="I22" s="0" t="n">
+      <c r="I22" s="3" t="n">
         <v>7.71</v>
       </c>
-      <c r="J22" s="0" t="n">
+      <c r="J22" s="3" t="n">
         <v>5.18</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23" s="3" t="n">
         <v>225</v>
       </c>
       <c r="E23" s="4" t="n">
         <v>225</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="F23" s="3" t="n">
         <v>0.2055497974</v>
       </c>
-      <c r="G23" s="0" t="n">
+      <c r="G23" s="3" t="n">
         <v>1.796819078</v>
       </c>
-      <c r="H23" s="0" t="n">
+      <c r="H23" s="3" t="n">
         <v>-27.66</v>
       </c>
-      <c r="I23" s="0" t="n">
+      <c r="I23" s="3" t="n">
         <v>8.7</v>
       </c>
-      <c r="J23" s="0" t="n">
+      <c r="J23" s="3" t="n">
         <v>7.49</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C24" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24" s="3" t="n">
         <v>50</v>
       </c>
       <c r="E24" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="F24" s="3" t="n">
         <v>0.4761255436</v>
       </c>
-      <c r="G24" s="0" t="n">
+      <c r="G24" s="3" t="n">
         <v>3.672890207</v>
       </c>
-      <c r="H24" s="0" t="n">
+      <c r="H24" s="3" t="n">
         <v>-27.87</v>
       </c>
-      <c r="I24" s="0" t="n">
+      <c r="I24" s="3" t="n">
         <v>7.38</v>
       </c>
-      <c r="J24" s="0" t="n">
+      <c r="J24" s="3" t="n">
         <v>6.61</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C25" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25" s="3" t="n">
         <v>55</v>
       </c>
       <c r="E25" s="4" t="n">
         <v>55</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="F25" s="3" t="n">
         <v>0.5397159762</v>
       </c>
-      <c r="G25" s="0" t="n">
+      <c r="G25" s="3" t="n">
         <v>3.485471583</v>
       </c>
-      <c r="H25" s="0" t="n">
+      <c r="H25" s="3" t="n">
         <v>-27.28</v>
       </c>
-      <c r="I25" s="0" t="n">
+      <c r="I25" s="3" t="n">
         <v>6.76</v>
       </c>
-      <c r="J25" s="0" t="n">
+      <c r="J25" s="3" t="n">
         <v>5.54</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C26" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26" s="3" t="n">
         <v>60</v>
       </c>
       <c r="E26" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="F26" s="3" t="n">
         <v>0.9499573192</v>
       </c>
-      <c r="G26" s="0" t="n">
+      <c r="G26" s="3" t="n">
         <v>4.165569151</v>
       </c>
-      <c r="H26" s="0" t="n">
+      <c r="H26" s="3" t="n">
         <v>-26.4</v>
       </c>
-      <c r="I26" s="0" t="n">
+      <c r="I26" s="3" t="n">
         <v>7.21</v>
       </c>
-      <c r="J26" s="0" t="n">
+      <c r="J26" s="3" t="n">
         <v>3.76</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C27" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27" s="3" t="n">
         <v>70</v>
       </c>
       <c r="E27" s="4" t="n">
         <v>70</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="F27" s="3" t="n">
         <v>0.8837548408</v>
       </c>
-      <c r="G27" s="0" t="n">
+      <c r="G27" s="3" t="n">
         <v>3.196363106</v>
       </c>
-      <c r="H27" s="0" t="n">
+      <c r="H27" s="3" t="n">
         <v>-29.29</v>
       </c>
-      <c r="I27" s="0" t="n">
+      <c r="I27" s="3" t="n">
         <v>4.03</v>
       </c>
-      <c r="J27" s="0" t="n">
+      <c r="J27" s="3" t="n">
         <v>3.1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C28" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28" s="3" t="n">
         <v>80</v>
       </c>
       <c r="E28" s="4" t="n">
         <v>80</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="F28" s="3" t="n">
         <v>0.3671578202</v>
       </c>
-      <c r="G28" s="0" t="n">
+      <c r="G28" s="3" t="n">
         <v>2.581152234</v>
       </c>
-      <c r="H28" s="0" t="n">
+      <c r="H28" s="3" t="n">
         <v>-30.01</v>
       </c>
-      <c r="I28" s="0" t="n">
+      <c r="I28" s="3" t="n">
         <v>5.12</v>
       </c>
-      <c r="J28" s="0" t="n">
+      <c r="J28" s="3" t="n">
         <v>6.03</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C29" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="D29" s="3" t="n">
         <v>90</v>
       </c>
       <c r="E29" s="4" t="n">
         <v>90</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="F29" s="3" t="n">
         <v>0.3806896728</v>
       </c>
-      <c r="G29" s="0" t="n">
+      <c r="G29" s="3" t="n">
         <v>2.30070853</v>
       </c>
-      <c r="H29" s="0" t="n">
+      <c r="H29" s="3" t="n">
         <v>-29.85</v>
       </c>
-      <c r="I29" s="0" t="n">
+      <c r="I29" s="3" t="n">
         <v>8.44</v>
       </c>
-      <c r="J29" s="0" t="n">
+      <c r="J29" s="3" t="n">
         <v>5.18</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C30" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="D30" s="3" t="n">
         <v>100</v>
       </c>
       <c r="E30" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="F30" s="3" t="n">
         <v>0.2129542001</v>
       </c>
-      <c r="G30" s="0" t="n">
+      <c r="G30" s="3" t="n">
         <v>1.897868326</v>
       </c>
-      <c r="H30" s="0" t="n">
+      <c r="H30" s="3" t="n">
         <v>-29.93</v>
       </c>
-      <c r="I30" s="0" t="n">
+      <c r="I30" s="3" t="n">
         <v>8.03</v>
       </c>
-      <c r="J30" s="0" t="n">
+      <c r="J30" s="3" t="n">
         <v>7.64</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C31" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="D31" s="3" t="n">
         <v>110</v>
       </c>
       <c r="E31" s="4" t="n">
         <v>110</v>
       </c>
-      <c r="F31" s="0" t="n">
+      <c r="F31" s="3" t="n">
         <v>0.2578108226</v>
       </c>
-      <c r="G31" s="0" t="n">
+      <c r="G31" s="3" t="n">
         <v>1.950442478</v>
       </c>
-      <c r="H31" s="0" t="n">
+      <c r="H31" s="3" t="n">
         <v>-30.56</v>
       </c>
-      <c r="I31" s="0" t="n">
+      <c r="I31" s="3" t="n">
         <v>8.71</v>
       </c>
-      <c r="J31" s="0" t="n">
+      <c r="J31" s="3" t="n">
         <v>6.48</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C32" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="D32" s="0" t="n">
+      <c r="D32" s="3" t="n">
         <v>120</v>
       </c>
       <c r="E32" s="4" t="n">
         <v>120</v>
       </c>
-      <c r="F32" s="0" t="n">
+      <c r="F32" s="3" t="n">
         <v>0.1478723245</v>
       </c>
-      <c r="G32" s="0" t="n">
+      <c r="G32" s="3" t="n">
         <v>1.773681321</v>
       </c>
-      <c r="H32" s="0" t="n">
+      <c r="H32" s="3" t="n">
         <v>-31.73</v>
       </c>
-      <c r="I32" s="0" t="n">
+      <c r="I32" s="3" t="n">
         <v>7.67</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C33" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="D33" s="0" t="n">
+      <c r="D33" s="3" t="n">
         <v>125</v>
       </c>
       <c r="E33" s="4" t="n">
         <v>125</v>
       </c>
-      <c r="F33" s="0" t="n">
+      <c r="F33" s="3" t="n">
         <v>0.1926534825</v>
       </c>
-      <c r="G33" s="0" t="n">
+      <c r="G33" s="3" t="n">
         <v>1.589526318</v>
       </c>
-      <c r="H33" s="0" t="n">
+      <c r="H33" s="3" t="n">
         <v>-27.69</v>
       </c>
-      <c r="I33" s="0" t="n">
+      <c r="I33" s="3" t="n">
         <v>11.4</v>
       </c>
-      <c r="J33" s="0" t="n">
+      <c r="J33" s="3" t="n">
         <v>7.07</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="D34" s="0" t="n">
+      <c r="D34" s="3" t="n">
         <v>130</v>
       </c>
       <c r="E34" s="4" t="n">
         <v>130</v>
       </c>
-      <c r="F34" s="0" t="n">
+      <c r="F34" s="3" t="n">
         <v>0.1908741474</v>
       </c>
-      <c r="G34" s="0" t="n">
+      <c r="G34" s="3" t="n">
         <v>1.63366712</v>
       </c>
-      <c r="H34" s="0" t="n">
+      <c r="H34" s="3" t="n">
         <v>-28.83</v>
       </c>
-      <c r="I34" s="0" t="n">
+      <c r="I34" s="3" t="n">
         <v>7.51</v>
       </c>
-      <c r="J34" s="0" t="n">
+      <c r="J34" s="3" t="n">
         <v>7.34</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C35" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="D35" s="0" t="n">
+      <c r="D35" s="3" t="n">
         <v>140</v>
       </c>
       <c r="E35" s="4" t="n">
         <v>140</v>
       </c>
-      <c r="F35" s="0" t="n">
+      <c r="F35" s="3" t="n">
         <v>0.2133815046</v>
       </c>
-      <c r="G35" s="0" t="n">
+      <c r="G35" s="3" t="n">
         <v>3.069384688</v>
       </c>
-      <c r="H35" s="0" t="n">
+      <c r="H35" s="3" t="n">
         <v>-26.96</v>
       </c>
-      <c r="I35" s="0" t="n">
+      <c r="I35" s="3" t="n">
         <v>8.39</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C36" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="D36" s="0" t="n">
+      <c r="D36" s="3" t="n">
         <v>150</v>
       </c>
       <c r="E36" s="4" t="n">
         <v>150</v>
       </c>
-      <c r="F36" s="0" t="n">
+      <c r="F36" s="3" t="n">
         <v>0.08435235604</v>
       </c>
-      <c r="G36" s="0" t="n">
+      <c r="G36" s="3" t="n">
         <v>0.9910855783</v>
       </c>
-      <c r="H36" s="0" t="n">
+      <c r="H36" s="3" t="n">
         <v>-30.41</v>
       </c>
-      <c r="I36" s="0" t="n">
+      <c r="I36" s="3" t="n">
         <v>8.05</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C37" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="D37" s="0" t="n">
+      <c r="D37" s="3" t="n">
         <v>160</v>
       </c>
       <c r="E37" s="4" t="n">
         <v>160</v>
       </c>
-      <c r="F37" s="0" t="n">
+      <c r="F37" s="3" t="n">
         <v>0.4599656111</v>
       </c>
-      <c r="G37" s="0" t="n">
+      <c r="G37" s="3" t="n">
         <v>1.532764095</v>
       </c>
-      <c r="H37" s="0" t="n">
+      <c r="H37" s="3" t="n">
         <v>-27.14</v>
       </c>
-      <c r="I37" s="0" t="n">
+      <c r="I37" s="3" t="n">
         <v>5.19</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C38" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="D38" s="0" t="n">
+      <c r="D38" s="3" t="n">
         <v>170</v>
       </c>
       <c r="E38" s="4" t="n">
         <v>170</v>
       </c>
-      <c r="F38" s="0" t="n">
+      <c r="F38" s="3" t="n">
         <v>0.169442075</v>
       </c>
-      <c r="G38" s="0" t="n">
+      <c r="G38" s="3" t="n">
         <v>1.71873523</v>
       </c>
-      <c r="H38" s="0" t="n">
+      <c r="H38" s="3" t="n">
         <v>-27.63</v>
       </c>
-      <c r="I38" s="0" t="n">
+      <c r="I38" s="3" t="n">
         <v>8.77</v>
       </c>
-      <c r="J38" s="0" t="n">
+      <c r="J38" s="3" t="n">
         <v>8.69</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C39" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="D39" s="0" t="n">
+      <c r="D39" s="3" t="n">
         <v>180</v>
       </c>
       <c r="E39" s="4" t="n">
         <v>180</v>
       </c>
-      <c r="F39" s="0" t="n">
+      <c r="F39" s="3" t="n">
         <v>0.1438202042</v>
       </c>
-      <c r="G39" s="0" t="n">
+      <c r="G39" s="3" t="n">
         <v>1.500392201</v>
       </c>
-      <c r="H39" s="0" t="n">
+      <c r="H39" s="3" t="n">
         <v>-28.15</v>
       </c>
-      <c r="I39" s="0" t="n">
+      <c r="I39" s="3" t="n">
         <v>9.3</v>
       </c>
-      <c r="J39" s="0" t="n">
+      <c r="J39" s="3" t="n">
         <v>8.94</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="A40" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C40" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="D40" s="0" t="n">
+      <c r="D40" s="3" t="n">
         <v>190</v>
       </c>
       <c r="E40" s="4" t="n">
         <v>190</v>
       </c>
-      <c r="F40" s="0" t="n">
+      <c r="F40" s="3" t="n">
         <v>0.2815361462</v>
       </c>
-      <c r="G40" s="0" t="n">
+      <c r="G40" s="3" t="n">
         <v>1.799777616</v>
       </c>
-      <c r="H40" s="0" t="n">
+      <c r="H40" s="3" t="n">
         <v>-27.74</v>
       </c>
-      <c r="I40" s="0" t="n">
+      <c r="I40" s="3" t="n">
         <v>6.97</v>
       </c>
-      <c r="J40" s="0" t="n">
+      <c r="J40" s="3" t="n">
         <v>5.48</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C41" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="D41" s="0" t="n">
+      <c r="D41" s="3" t="n">
         <v>200</v>
       </c>
       <c r="E41" s="4" t="n">
         <v>200</v>
       </c>
-      <c r="F41" s="0" t="n">
+      <c r="F41" s="3" t="n">
         <v>0.2063361249</v>
       </c>
-      <c r="G41" s="0" t="n">
+      <c r="G41" s="3" t="n">
         <v>1.759913167</v>
       </c>
-      <c r="H41" s="0" t="n">
+      <c r="H41" s="3" t="n">
         <v>-27.64</v>
       </c>
-      <c r="I41" s="0" t="n">
+      <c r="I41" s="3" t="n">
         <v>8.91</v>
       </c>
-      <c r="J41" s="0" t="n">
+      <c r="J41" s="3" t="n">
         <v>7.31</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="A42" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C42" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="D42" s="0" t="n">
+      <c r="D42" s="3" t="n">
         <v>225</v>
       </c>
       <c r="E42" s="4" t="n">
         <v>225</v>
       </c>
-      <c r="F42" s="0" t="n">
+      <c r="F42" s="3" t="n">
         <v>0.2562312304</v>
       </c>
-      <c r="G42" s="0" t="n">
+      <c r="G42" s="3" t="n">
         <v>1.720774625</v>
       </c>
-      <c r="H42" s="0" t="n">
+      <c r="H42" s="3" t="n">
         <v>-28.16</v>
       </c>
-      <c r="I42" s="0" t="n">
+      <c r="I42" s="3" t="n">
         <v>8.86</v>
       </c>
-      <c r="J42" s="0" t="n">
+      <c r="J42" s="3" t="n">
         <v>5.76</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="A43" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C43" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="D43" s="0" t="n">
+      <c r="D43" s="3" t="n">
         <v>300</v>
       </c>
       <c r="E43" s="4" t="n">
         <v>300</v>
       </c>
-      <c r="F43" s="0" t="n">
+      <c r="F43" s="3" t="n">
         <v>0.1257822499</v>
       </c>
-      <c r="G43" s="0" t="n">
+      <c r="G43" s="3" t="n">
         <v>1.043366894</v>
       </c>
-      <c r="H43" s="0" t="n">
+      <c r="H43" s="3" t="n">
         <v>-25.26</v>
       </c>
-      <c r="I43" s="0" t="n">
+      <c r="I43" s="3" t="n">
         <v>9.29</v>
       </c>
-      <c r="J43" s="0" t="n">
+      <c r="J43" s="3" t="n">
         <v>7.11</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="A44" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C44" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="D44" s="0" t="n">
+      <c r="D44" s="3" t="n">
         <v>400</v>
       </c>
       <c r="E44" s="4" t="n">
         <v>400</v>
       </c>
-      <c r="F44" s="0" t="n">
+      <c r="F44" s="3" t="n">
         <v>0.07414341438</v>
       </c>
-      <c r="G44" s="0" t="n">
+      <c r="G44" s="3" t="n">
         <v>0.7374934599</v>
       </c>
-      <c r="H44" s="0" t="n">
+      <c r="H44" s="3" t="n">
         <v>-27.62</v>
       </c>
-      <c r="I44" s="0" t="n">
+      <c r="I44" s="3" t="n">
         <v>9.08</v>
       </c>
-      <c r="J44" s="0" t="n">
+      <c r="J44" s="3" t="n">
         <v>8.53</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="A45" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C45" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="D45" s="0" t="n">
+      <c r="D45" s="3" t="n">
         <v>500</v>
       </c>
       <c r="E45" s="4" t="n">
         <v>500</v>
       </c>
-      <c r="F45" s="0" t="n">
+      <c r="F45" s="3" t="n">
         <v>0.06776094608</v>
       </c>
-      <c r="G45" s="0" t="n">
+      <c r="G45" s="3" t="n">
         <v>0.7731835548</v>
       </c>
-      <c r="H45" s="0" t="n">
+      <c r="H45" s="3" t="n">
         <v>-27.48</v>
       </c>
-      <c r="I45" s="0" t="n">
+      <c r="I45" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="J45" s="0" t="n">
+      <c r="J45" s="3" t="n">
         <v>9.78</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="A46" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C46" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="D46" s="0" t="n">
+      <c r="D46" s="3" t="n">
         <v>600</v>
       </c>
       <c r="E46" s="4" t="n">
         <v>600</v>
       </c>
-      <c r="F46" s="0" t="n">
+      <c r="F46" s="3" t="n">
         <v>0.09323703014</v>
       </c>
-      <c r="G46" s="0" t="n">
+      <c r="G46" s="3" t="n">
         <v>0.7007305088</v>
       </c>
-      <c r="H46" s="0" t="n">
+      <c r="H46" s="3" t="n">
         <v>-28.25</v>
       </c>
-      <c r="I46" s="0" t="n">
+      <c r="I46" s="3" t="n">
         <v>6.8</v>
       </c>
-      <c r="J46" s="0" t="n">
+      <c r="J46" s="3" t="n">
         <v>6.44</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="A47" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C47" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="D47" s="0" t="n">
+      <c r="D47" s="3" t="n">
         <v>700</v>
       </c>
       <c r="E47" s="4" t="n">
         <v>700</v>
       </c>
-      <c r="F47" s="0" t="n">
+      <c r="F47" s="3" t="n">
         <v>0.06383173627</v>
       </c>
-      <c r="G47" s="0" t="n">
+      <c r="G47" s="3" t="n">
         <v>0.7736522766</v>
       </c>
-      <c r="H47" s="0" t="n">
+      <c r="H47" s="3" t="n">
         <v>-27.18</v>
       </c>
-      <c r="I47" s="0" t="n">
+      <c r="I47" s="3" t="n">
         <v>7.58</v>
       </c>
-      <c r="J47" s="0" t="n">
+      <c r="J47" s="3" t="n">
         <v>10.39</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="A48" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C48" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="D48" s="0" t="n">
+      <c r="D48" s="3" t="n">
         <v>800</v>
       </c>
       <c r="E48" s="4" t="n">
         <v>800</v>
       </c>
-      <c r="F48" s="0" t="n">
+      <c r="F48" s="3" t="n">
         <v>0.0497214539</v>
       </c>
-      <c r="G48" s="0" t="n">
+      <c r="G48" s="3" t="n">
         <v>0.6681287289</v>
       </c>
-      <c r="H48" s="0" t="n">
+      <c r="H48" s="3" t="n">
         <v>-29.02</v>
       </c>
-      <c r="I48" s="0" t="n">
+      <c r="I48" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="J48" s="0" t="n">
+      <c r="J48" s="3" t="n">
         <v>11.52</v>
       </c>
     </row>
